--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 VM.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 VM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BIMS-101</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>3.92%</t>
   </si>
   <si>
+    <t>5.56%</t>
+  </si>
+  <si>
     <t>COTHRAN E</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>22.00%</t>
   </si>
   <si>
+    <t>7.41%</t>
+  </si>
+  <si>
     <t>BERGTHORSSON U</t>
   </si>
   <si>
@@ -160,12 +169,18 @@
     <t>20.00%</t>
   </si>
   <si>
+    <t>3.85%</t>
+  </si>
+  <si>
     <t>BIMS-421</t>
   </si>
   <si>
     <t>VENKATRAJ V</t>
   </si>
   <si>
+    <t>7.14%</t>
+  </si>
+  <si>
     <t>BIMS-485</t>
   </si>
   <si>
@@ -190,6 +205,9 @@
     <t>1.04%</t>
   </si>
   <si>
+    <t>1.03%</t>
+  </si>
+  <si>
     <t>VIBS-285</t>
   </si>
   <si>
@@ -229,6 +247,9 @@
     <t>2.63%</t>
   </si>
   <si>
+    <t>2.56%</t>
+  </si>
+  <si>
     <t>VIBS-404</t>
   </si>
   <si>
@@ -298,6 +319,9 @@
     <t>6.06%</t>
   </si>
   <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>VIBS-485</t>
   </si>
   <si>
@@ -319,6 +343,9 @@
     <t>46.15%</t>
   </si>
   <si>
+    <t>3.70%</t>
+  </si>
+  <si>
     <t>VIBS-622</t>
   </si>
   <si>
@@ -538,9 +565,6 @@
     <t>91.67%</t>
   </si>
   <si>
-    <t>8.33%</t>
-  </si>
-  <si>
     <t>MARTIN M</t>
   </si>
   <si>
@@ -823,12 +847,18 @@
     <t>1.47%</t>
   </si>
   <si>
+    <t>1.45%</t>
+  </si>
+  <si>
     <t>VTPB-212</t>
   </si>
   <si>
     <t>THREADGILL D</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>VTPB-221</t>
   </si>
   <si>
@@ -925,6 +955,9 @@
     <t>5.88%</t>
   </si>
   <si>
+    <t>15.00%</t>
+  </si>
+  <si>
     <t>VTPB-438</t>
   </si>
   <si>
@@ -955,6 +988,9 @@
     <t>6.67%</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>VTPB-489</t>
   </si>
   <si>
@@ -1057,6 +1093,9 @@
     <t>21.74%</t>
   </si>
   <si>
+    <t>1.43%</t>
+  </si>
+  <si>
     <t>VTPP-401</t>
   </si>
   <si>
@@ -1090,6 +1129,9 @@
     <t>2.65%</t>
   </si>
   <si>
+    <t>3.42%</t>
+  </si>
+  <si>
     <t>VTPP-425</t>
   </si>
   <si>
@@ -1111,6 +1153,9 @@
     <t>16.67%</t>
   </si>
   <si>
+    <t>45.45%</t>
+  </si>
+  <si>
     <t>VTPP-427</t>
   </si>
   <si>
@@ -1138,15 +1183,15 @@
     <t>35.71%</t>
   </si>
   <si>
+    <t>26.32%</t>
+  </si>
+  <si>
     <t>VTPP-485</t>
   </si>
   <si>
     <t>94.44%</t>
   </si>
   <si>
-    <t>5.56%</t>
-  </si>
-  <si>
     <t>VTPP-491</t>
   </si>
   <si>
@@ -1156,9 +1201,6 @@
     <t>STALLONE J</t>
   </si>
   <si>
-    <t>15.00%</t>
-  </si>
-  <si>
     <t>25.00%</t>
   </si>
   <si>
@@ -1253,9 +1295,6 @@
   </si>
   <si>
     <t>26.92%</t>
-  </si>
-  <si>
-    <t>3.85%</t>
   </si>
   <si>
     <t>VTPP-948</t>
@@ -1299,12 +1338,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1598,15 +1636,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H322"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1631,3516 +1669,3915 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.837</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3.9565</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>3.8205</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>3.861</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>3.098</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
         <v>3.473</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" t="n">
         <v>2.9</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>3.36</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C26" t="n">
         <v>3.49</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C32" t="n">
         <v>3.154</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C35" t="n">
         <v>3.0663</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C38" t="n">
         <v>3.867</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C41" t="n">
         <v>3.55</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C44" t="n">
         <v>3.861</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C47" t="n">
         <v>3.909</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C50" t="n">
         <v>2.818</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G50" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C57" t="n">
         <v>3.846</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C60" t="n">
         <v>3.538</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C63" t="n">
         <v>3.956</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C66" t="n">
         <v>3.667</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C69" t="n">
         <v>3.958</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C72" t="n">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C75" t="n">
         <v>3.667</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C78" t="n">
         <v>3.857</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C81" t="n">
         <v>3.556</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C88" t="n">
         <v>3.857</v>
       </c>
       <c r="D88" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E88" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C91" t="n">
         <v>3.137</v>
       </c>
       <c r="D91" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G91" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C94" t="n">
         <v>3.062</v>
       </c>
       <c r="D94" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F94" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G94" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C97" t="n">
         <v>3.817</v>
       </c>
       <c r="D97" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97" t="s">
+        <v>147</v>
+      </c>
+      <c r="F97" t="s">
         <v>137</v>
       </c>
-      <c r="E97" t="s">
-        <v>138</v>
-      </c>
-      <c r="F97" t="s">
-        <v>128</v>
-      </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C100" t="n">
         <v>3.523</v>
       </c>
       <c r="D100" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E100" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F100" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C103" t="n">
         <v>3.476</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C107" t="n">
         <v>3.973</v>
       </c>
       <c r="D107" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E107" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C110" t="n">
         <v>3.234</v>
       </c>
       <c r="D110" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E110" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F110" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C113" t="n">
         <v>2.98</v>
       </c>
       <c r="D113" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C116" t="n">
         <v>3.649</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E116" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F116" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C119" t="n">
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C120" t="n">
         <v>3.308</v>
       </c>
       <c r="D120" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E120" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C122" t="n">
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C123" t="n">
         <v>3.889</v>
       </c>
       <c r="D123" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E123" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C127" t="n">
         <v>3.9165</v>
       </c>
       <c r="D127" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E127" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C132" t="n">
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C138" t="n">
         <v>3.977</v>
       </c>
       <c r="D138" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E138" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C141" t="n">
         <v>2.458</v>
       </c>
       <c r="D141" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E141" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F141" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G141" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C144" t="n">
         <v>3.662</v>
       </c>
       <c r="D144" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E144" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F144" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C147" t="n">
         <v>3.246</v>
       </c>
       <c r="D147" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E147" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F147" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C150" t="n">
         <v>3.061</v>
       </c>
       <c r="D150" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E150" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F150" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C153" t="n">
         <v>3.542</v>
       </c>
       <c r="D153" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E153" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F153" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C156" t="n">
         <v>3.97</v>
       </c>
       <c r="D156" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E156" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F156" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C159" t="n">
         <v>3.875</v>
       </c>
       <c r="D159" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E159" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C162" t="n">
         <v>3.6</v>
       </c>
       <c r="D162" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E162" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C165" t="n">
         <v>3.6</v>
       </c>
       <c r="D165" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E165" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C168" t="n">
         <v>3.79</v>
       </c>
       <c r="D168" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E168" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C170" t="n">
         <v>3.909</v>
       </c>
       <c r="D170" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E170" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C171" t="n">
         <v>3.905</v>
       </c>
       <c r="D171" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E171" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F171" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C173" t="n">
         <v>3.369</v>
       </c>
       <c r="D173" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E173" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C174" t="n">
         <v>3.99</v>
       </c>
       <c r="D174" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E174" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C175" t="n">
         <v>3.52</v>
       </c>
       <c r="D175" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E175" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C178" t="n">
         <v>3.817</v>
       </c>
       <c r="D178" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E178" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C180" t="n">
         <v>3.667</v>
       </c>
       <c r="D180" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C182" t="n">
         <v>3.85</v>
       </c>
       <c r="D182" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E182" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C185" t="n">
         <v>3.969</v>
       </c>
       <c r="D185" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E185" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C188" t="n">
         <v>3.29</v>
       </c>
       <c r="D188" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E188" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F188" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C194" t="n">
         <v>3.838</v>
       </c>
       <c r="D194" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E194" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F194" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>276</v>
+      </c>
+      <c r="I194" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C197" t="n">
         <v>3.556</v>
       </c>
       <c r="D197" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E197" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C200" t="n">
         <v>3.566</v>
       </c>
       <c r="D200" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="E200" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F200" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="G200" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="H200" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I200" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C203" t="n">
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C206" t="n">
         <v>3.48</v>
       </c>
       <c r="D206" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E206" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F206" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C209" t="n">
         <v>3.18</v>
       </c>
       <c r="D209" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E209" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F209" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G209" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H209" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C212" t="n">
         <v>3.2917</v>
       </c>
       <c r="D212" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E212" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F212" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C215" t="n">
         <v>3.133</v>
       </c>
       <c r="D215" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E215" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F215" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G215" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H215" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>308</v>
+      </c>
+      <c r="I215" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C218" t="n">
         <v>3.176</v>
       </c>
       <c r="D218" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E218" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F218" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G218" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="H218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C221" t="n">
         <v>3.49</v>
       </c>
       <c r="D221" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E221" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F221" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G221" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H221" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C224" t="n">
         <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="B227" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C227" t="n">
         <v>2.8</v>
       </c>
       <c r="D227" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E227" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F227" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G227" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>323</v>
+      </c>
+      <c r="I227" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C230" t="n">
         <v>3.316</v>
       </c>
       <c r="D230" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E230" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="F230" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G230" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H230" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C233" t="n">
         <v>3.466</v>
       </c>
       <c r="D233" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="E233" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F233" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H233" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C236" t="n">
         <v>3.2</v>
       </c>
       <c r="D236" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E236" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="F236" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G236" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H236" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>207</v>
+      </c>
+      <c r="I236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="B239" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C239" t="n">
         <v>3.186</v>
       </c>
       <c r="D239" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="E239" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F239" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="G239" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="B242" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C242" t="n">
         <v>4</v>
       </c>
       <c r="D242" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H242" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C243" t="n">
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H243" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C246" t="n">
         <v>3.9755</v>
       </c>
       <c r="D246" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E246" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="G246" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I246" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="B249" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C249" t="n">
         <v>4</v>
       </c>
       <c r="D249" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E249" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F249" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G249" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H249" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I249" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="B252" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C252" t="n">
         <v>4</v>
       </c>
       <c r="D252" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E252" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G252" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H252" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="B255" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C255" t="n">
         <v>3.116</v>
       </c>
       <c r="D255" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E255" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F255" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="G255" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H255" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I255" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="B258" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C258" t="n">
         <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E258" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G258" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H258" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I258" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C261" t="n">
         <v>3.625</v>
       </c>
       <c r="D261" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E261" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F261" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G261" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="B262" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C262" t="n">
         <v>2.543</v>
       </c>
       <c r="D262" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E262" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F262" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G262" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H262" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>370</v>
+      </c>
+      <c r="I262" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="B265" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C265" t="n">
         <v>3.143</v>
       </c>
       <c r="D265" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="E265" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F265" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G265" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I265" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C266" t="n">
         <v>3</v>
       </c>
       <c r="D266" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="E266" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F266" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G266" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>378</v>
+      </c>
+      <c r="I266" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="B269" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="B269" t="s">
-        <v>352</v>
       </c>
       <c r="C269" t="n">
         <v>3.6</v>
       </c>
       <c r="D269" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E269" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F269" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G269" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H269" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I269" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C272" t="n">
         <v>3.1875</v>
       </c>
       <c r="D272" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="E272" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F272" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G272" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H272" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I272" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C273" t="n">
         <v>4</v>
       </c>
       <c r="D273" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E273" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F273" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H273" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C276" t="n">
         <v>3.071</v>
       </c>
       <c r="D276" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="E276" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="F276" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G276" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H276" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I276" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C279" t="n">
         <v>3.944</v>
       </c>
       <c r="D279" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="E279" t="s">
-        <v>376</v>
+        <v>34</v>
       </c>
       <c r="F279" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G279" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H279" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I279" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="B282" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C282" t="n">
         <v>4</v>
       </c>
       <c r="D282" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E282" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G282" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H282" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I282" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C285" t="n">
         <v>2.9</v>
       </c>
       <c r="D285" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="E285" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F285" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="G285" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H285" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I285" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="B288" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C288" t="n">
         <v>3.429</v>
       </c>
       <c r="D288" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E288" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F288" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G288" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H288" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I288" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C291" t="n">
         <v>2.778</v>
       </c>
       <c r="D291" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E291" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F291" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G291" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H291" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I291" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="B294" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="B294" t="s">
-        <v>372</v>
       </c>
       <c r="C294" t="n">
         <v>3.13</v>
       </c>
       <c r="D294" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E294" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="F294" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="G294" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H294" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I294" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C297" t="n">
         <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E297" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="F297" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="G297" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H297" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I297" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="C300" t="n">
         <v>4</v>
       </c>
       <c r="D300" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E300" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F300" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G300" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H300" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I300" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="B303" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="C303" t="n">
         <v>4</v>
       </c>
       <c r="D303" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E303" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F303" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G303" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H303" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I303" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="B306" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C306" t="n">
         <v>4</v>
       </c>
       <c r="D306" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E306" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G306" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H306" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I306" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="B309" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C309" t="n">
         <v>3.722</v>
       </c>
       <c r="D309" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="E309" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F309" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G309" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H309" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I309" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="B312" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C312" t="n">
         <v>3.244</v>
       </c>
       <c r="D312" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="E312" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="F312" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="G312" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H312" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I312" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="B315" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C315" t="n">
         <v>3.854</v>
       </c>
       <c r="D315" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="E315" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F315" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="G315" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H315" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I315" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="B318" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C318" t="n">
         <v>2.869</v>
       </c>
       <c r="D318" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="E318" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F318" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G318" t="s">
-        <v>413</v>
+        <v>51</v>
       </c>
       <c r="H318" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I318" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="B321" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C321" t="n">
         <v>4</v>
       </c>
       <c r="D321" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E321" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G321" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H321" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I321" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="B322" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C322" t="n">
         <v>4</v>
       </c>
       <c r="D322" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E322" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F322" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G322" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H322" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I322" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 VM.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 VM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="419">
   <si>
     <t>Course</t>
   </si>
@@ -718,51 +718,51 @@
     <t>1.27%</t>
   </si>
   <si>
+    <t>ZORAN D</t>
+  </si>
+  <si>
+    <t>36.92%</t>
+  </si>
+  <si>
+    <t>63.08%</t>
+  </si>
+  <si>
+    <t>BARTON C</t>
+  </si>
+  <si>
+    <t>98.48%</t>
+  </si>
+  <si>
+    <t>1.52%</t>
+  </si>
+  <si>
+    <t>ECKMAN S</t>
+  </si>
+  <si>
+    <t>52.00%</t>
+  </si>
+  <si>
+    <t>48.00%</t>
+  </si>
+  <si>
+    <t>LIDBURY J</t>
+  </si>
+  <si>
+    <t>ROGERS K</t>
+  </si>
+  <si>
+    <t>AUGUST J</t>
+  </si>
+  <si>
+    <t>81.67%</t>
+  </si>
+  <si>
+    <t>18.33%</t>
+  </si>
+  <si>
     <t>BRIGHTSMITH D</t>
   </si>
   <si>
-    <t>ZORAN D</t>
-  </si>
-  <si>
-    <t>36.92%</t>
-  </si>
-  <si>
-    <t>63.08%</t>
-  </si>
-  <si>
-    <t>BARTON C</t>
-  </si>
-  <si>
-    <t>98.48%</t>
-  </si>
-  <si>
-    <t>1.52%</t>
-  </si>
-  <si>
-    <t>ECKMAN S</t>
-  </si>
-  <si>
-    <t>52.00%</t>
-  </si>
-  <si>
-    <t>48.00%</t>
-  </si>
-  <si>
-    <t>LIDBURY J</t>
-  </si>
-  <si>
-    <t>ROGERS K</t>
-  </si>
-  <si>
-    <t>AUGUST J</t>
-  </si>
-  <si>
-    <t>81.67%</t>
-  </si>
-  <si>
-    <t>18.33%</t>
-  </si>
-  <si>
     <t>AUDREY C</t>
   </si>
   <si>
@@ -946,6 +946,9 @@
     <t>VTPB-485</t>
   </si>
   <si>
+    <t>ESTEVE-GASENT M</t>
+  </si>
+  <si>
     <t>VTPB-487</t>
   </si>
   <si>
@@ -1070,6 +1073,12 @@
   </si>
   <si>
     <t>37.50%</t>
+  </si>
+  <si>
+    <t>NEWELL-FUGATE A</t>
+  </si>
+  <si>
+    <t>5.13%</t>
   </si>
   <si>
     <t>HERMAN J</t>
@@ -1598,7 +1607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H322"/>
+  <dimension ref="A1:H325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3520,13 +3529,13 @@
         <v>234</v>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>3.369</v>
       </c>
       <c r="D172" t="s">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="F172" t="s">
         <v>13</v>
@@ -3540,16 +3549,16 @@
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C173" t="n">
-        <v>3.369</v>
+        <v>3.99</v>
       </c>
       <c r="D173" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E173" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F173" t="s">
         <v>13</v>
@@ -3563,16 +3572,16 @@
     </row>
     <row r="174" spans="1:8">
       <c r="B174" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C174" t="n">
-        <v>3.99</v>
+        <v>3.52</v>
       </c>
       <c r="D174" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E174" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
@@ -3586,16 +3595,16 @@
     </row>
     <row r="175" spans="1:8">
       <c r="B175" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C175" t="n">
-        <v>3.52</v>
+        <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="E175" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="F175" t="s">
         <v>13</v>
@@ -3635,13 +3644,13 @@
         <v>245</v>
       </c>
       <c r="C177" t="n">
-        <v>4</v>
+        <v>3.817</v>
       </c>
       <c r="D177" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
@@ -3655,16 +3664,16 @@
     </row>
     <row r="178" spans="1:8">
       <c r="B178" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C178" t="n">
-        <v>3.817</v>
+        <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="E178" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
@@ -3775,7 +3784,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="B185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C185" t="n">
         <v>3.969</v>
@@ -3803,7 +3812,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C188" t="n">
         <v>3.29</v>
@@ -4139,7 +4148,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="B224" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C224" t="n">
         <v>4</v>
@@ -4160,172 +4169,172 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
-      <c r="A226" t="s">
-        <v>310</v>
+    <row r="225" spans="1:8">
+      <c r="B225" t="s">
+        <v>270</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4</v>
+      </c>
+      <c r="D225" t="s">
+        <v>39</v>
+      </c>
+      <c r="E225" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
+      <c r="H225" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="B227" t="s">
+      <c r="A227" t="s">
         <v>311</v>
       </c>
-      <c r="C227" t="n">
+    </row>
+    <row r="228" spans="1:8">
+      <c r="B228" t="s">
+        <v>312</v>
+      </c>
+      <c r="C228" t="n">
         <v>2.8</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D228" t="s">
         <v>47</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E228" t="s">
         <v>295</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F228" t="s">
         <v>47</v>
       </c>
-      <c r="G227" t="s">
-        <v>13</v>
-      </c>
-      <c r="H227" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" t="s">
+      <c r="G228" t="s">
+        <v>13</v>
+      </c>
+      <c r="H228" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="B230" t="s">
+      <c r="A230" t="s">
         <v>314</v>
       </c>
-      <c r="C230" t="n">
+    </row>
+    <row r="231" spans="1:8">
+      <c r="B231" t="s">
+        <v>315</v>
+      </c>
+      <c r="C231" t="n">
         <v>3.316</v>
       </c>
-      <c r="D230" t="s">
-        <v>315</v>
-      </c>
-      <c r="E230" t="s">
+      <c r="D231" t="s">
         <v>316</v>
       </c>
-      <c r="F230" t="s">
+      <c r="E231" t="s">
         <v>317</v>
       </c>
-      <c r="G230" t="s">
-        <v>13</v>
-      </c>
-      <c r="H230" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" t="s">
+      <c r="F231" t="s">
         <v>318</v>
       </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="B233" t="s">
+      <c r="A233" t="s">
         <v>319</v>
       </c>
-      <c r="C233" t="n">
+    </row>
+    <row r="234" spans="1:8">
+      <c r="B234" t="s">
+        <v>320</v>
+      </c>
+      <c r="C234" t="n">
         <v>3.466</v>
       </c>
-      <c r="D233" t="s">
-        <v>320</v>
-      </c>
-      <c r="E233" t="s">
+      <c r="D234" t="s">
         <v>321</v>
       </c>
-      <c r="F233" t="s">
+      <c r="E234" t="s">
         <v>322</v>
       </c>
-      <c r="G233" t="s">
-        <v>13</v>
-      </c>
-      <c r="H233" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" t="s">
+      <c r="F234" t="s">
         <v>323</v>
       </c>
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="B236" t="s">
+      <c r="A236" t="s">
         <v>324</v>
       </c>
-      <c r="C236" t="n">
+    </row>
+    <row r="237" spans="1:8">
+      <c r="B237" t="s">
+        <v>325</v>
+      </c>
+      <c r="C237" t="n">
         <v>3.2</v>
       </c>
-      <c r="D236" t="s">
-        <v>236</v>
-      </c>
-      <c r="E236" t="s">
-        <v>325</v>
-      </c>
-      <c r="F236" t="s">
+      <c r="D237" t="s">
+        <v>235</v>
+      </c>
+      <c r="E237" t="s">
         <v>326</v>
       </c>
-      <c r="G236" t="s">
+      <c r="F237" t="s">
+        <v>327</v>
+      </c>
+      <c r="G237" t="s">
         <v>199</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H237" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
-      <c r="A238" t="s">
-        <v>327</v>
-      </c>
-    </row>
     <row r="239" spans="1:8">
-      <c r="B239" t="s">
+      <c r="A239" t="s">
         <v>328</v>
       </c>
-      <c r="C239" t="n">
+    </row>
+    <row r="240" spans="1:8">
+      <c r="B240" t="s">
+        <v>329</v>
+      </c>
+      <c r="C240" t="n">
         <v>3.186</v>
       </c>
-      <c r="D239" t="s">
-        <v>329</v>
-      </c>
-      <c r="E239" t="s">
+      <c r="D240" t="s">
         <v>330</v>
       </c>
-      <c r="F239" t="s">
+      <c r="E240" t="s">
         <v>331</v>
       </c>
-      <c r="G239" t="s">
+      <c r="F240" t="s">
         <v>332</v>
       </c>
-      <c r="H239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" t="s">
+      <c r="G240" t="s">
         <v>333</v>
       </c>
+      <c r="H240" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="B242" t="s">
+      <c r="A242" t="s">
         <v>334</v>
-      </c>
-      <c r="C242" t="n">
-        <v>4</v>
-      </c>
-      <c r="D242" t="s">
-        <v>39</v>
-      </c>
-      <c r="E242" t="s">
-        <v>13</v>
-      </c>
-      <c r="F242" t="s">
-        <v>13</v>
-      </c>
-      <c r="G242" t="s">
-        <v>13</v>
-      </c>
-      <c r="H242" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -4351,400 +4360,441 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
-      <c r="A245" t="s">
+    <row r="244" spans="1:8">
+      <c r="B244" t="s">
         <v>336</v>
       </c>
+      <c r="C244" t="n">
+        <v>4</v>
+      </c>
+      <c r="D244" t="s">
+        <v>39</v>
+      </c>
+      <c r="E244" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="B246" t="s">
+      <c r="A246" t="s">
         <v>337</v>
       </c>
-      <c r="C246" t="n">
+    </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>338</v>
+      </c>
+      <c r="C247" t="n">
         <v>3.9755</v>
       </c>
-      <c r="D246" t="s">
-        <v>338</v>
-      </c>
-      <c r="E246" t="s">
-        <v>13</v>
-      </c>
-      <c r="F246" t="s">
+      <c r="D247" t="s">
         <v>339</v>
       </c>
-      <c r="G246" t="s">
-        <v>13</v>
-      </c>
-      <c r="H246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" t="s">
+      <c r="E247" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
         <v>340</v>
       </c>
+      <c r="G247" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="B249" t="s">
+      <c r="A249" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="B250" t="s">
         <v>187</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C250" t="n">
         <v>4</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D250" t="s">
         <v>39</v>
       </c>
-      <c r="E249" t="s">
-        <v>13</v>
-      </c>
-      <c r="F249" t="s">
-        <v>13</v>
-      </c>
-      <c r="G249" t="s">
-        <v>13</v>
-      </c>
-      <c r="H249" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" t="s">
-        <v>341</v>
+      <c r="E250" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" t="s">
+        <v>13</v>
+      </c>
+      <c r="H250" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="B252" t="s">
+      <c r="A252" t="s">
         <v>342</v>
       </c>
-      <c r="C252" t="n">
+    </row>
+    <row r="253" spans="1:8">
+      <c r="B253" t="s">
+        <v>343</v>
+      </c>
+      <c r="C253" t="n">
         <v>4</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D253" t="s">
         <v>39</v>
       </c>
-      <c r="E252" t="s">
-        <v>13</v>
-      </c>
-      <c r="F252" t="s">
-        <v>13</v>
-      </c>
-      <c r="G252" t="s">
-        <v>13</v>
-      </c>
-      <c r="H252" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" t="s">
-        <v>343</v>
+      <c r="E253" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" t="s">
+        <v>13</v>
+      </c>
+      <c r="G253" t="s">
+        <v>13</v>
+      </c>
+      <c r="H253" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="B255" t="s">
+      <c r="A255" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="B256" t="s">
         <v>187</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C256" t="n">
         <v>3.116</v>
       </c>
-      <c r="D255" t="s">
-        <v>344</v>
-      </c>
-      <c r="E255" t="s">
+      <c r="D256" t="s">
         <v>345</v>
       </c>
-      <c r="F255" t="s">
+      <c r="E256" t="s">
         <v>346</v>
       </c>
-      <c r="G255" t="s">
+      <c r="F256" t="s">
+        <v>347</v>
+      </c>
+      <c r="G256" t="s">
         <v>103</v>
       </c>
-      <c r="H255" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" t="s">
-        <v>347</v>
+      <c r="H256" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="B258" t="s">
+      <c r="A258" t="s">
         <v>348</v>
       </c>
-      <c r="C258" t="n">
+    </row>
+    <row r="259" spans="1:8">
+      <c r="B259" t="s">
+        <v>349</v>
+      </c>
+      <c r="C259" t="n">
         <v>4</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D259" t="s">
         <v>39</v>
       </c>
-      <c r="E258" t="s">
-        <v>13</v>
-      </c>
-      <c r="F258" t="s">
-        <v>13</v>
-      </c>
-      <c r="G258" t="s">
-        <v>13</v>
-      </c>
-      <c r="H258" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="s">
-        <v>349</v>
+      <c r="E259" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259" t="s">
+        <v>13</v>
+      </c>
+      <c r="H259" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:8">
-      <c r="B261" t="s">
-        <v>348</v>
-      </c>
-      <c r="C261" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="A261" t="s">
         <v>350</v>
-      </c>
-      <c r="E261" t="s">
-        <v>351</v>
-      </c>
-      <c r="F261" t="s">
-        <v>13</v>
-      </c>
-      <c r="G261" t="s">
-        <v>13</v>
-      </c>
-      <c r="H261" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="B262" t="s">
+        <v>349</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D262" t="s">
+        <v>351</v>
+      </c>
+      <c r="E262" t="s">
         <v>352</v>
       </c>
-      <c r="C262" t="n">
+      <c r="F262" t="s">
+        <v>13</v>
+      </c>
+      <c r="G262" t="s">
+        <v>13</v>
+      </c>
+      <c r="H262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="B263" t="s">
+        <v>353</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="D263" t="s">
+        <v>98</v>
+      </c>
+      <c r="E263" t="s">
+        <v>55</v>
+      </c>
+      <c r="F263" t="s">
+        <v>55</v>
+      </c>
+      <c r="G263" t="s">
+        <v>63</v>
+      </c>
+      <c r="H263" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="B264" t="s">
+        <v>355</v>
+      </c>
+      <c r="C264" t="n">
         <v>2.543</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D264" t="s">
+        <v>356</v>
+      </c>
+      <c r="E264" t="s">
+        <v>357</v>
+      </c>
+      <c r="F264" t="s">
+        <v>358</v>
+      </c>
+      <c r="G264" t="s">
+        <v>359</v>
+      </c>
+      <c r="H264" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="B267" t="s">
+        <v>362</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D267" t="s">
+        <v>363</v>
+      </c>
+      <c r="E267" t="s">
+        <v>364</v>
+      </c>
+      <c r="F267" t="s">
+        <v>116</v>
+      </c>
+      <c r="G267" t="s">
+        <v>13</v>
+      </c>
+      <c r="H267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="B268" t="s">
+        <v>365</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3</v>
+      </c>
+      <c r="D268" t="s">
+        <v>366</v>
+      </c>
+      <c r="E268" t="s">
+        <v>55</v>
+      </c>
+      <c r="F268" t="s">
+        <v>13</v>
+      </c>
+      <c r="G268" t="s">
+        <v>13</v>
+      </c>
+      <c r="H268" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="B271" t="s">
+        <v>355</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>222</v>
+      </c>
+      <c r="E271" t="s">
+        <v>223</v>
+      </c>
+      <c r="F271" t="s">
+        <v>13</v>
+      </c>
+      <c r="G271" t="s">
+        <v>13</v>
+      </c>
+      <c r="H271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="B274" t="s">
+        <v>370</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.1875</v>
+      </c>
+      <c r="D274" t="s">
+        <v>371</v>
+      </c>
+      <c r="E274" t="s">
+        <v>372</v>
+      </c>
+      <c r="F274" t="s">
+        <v>373</v>
+      </c>
+      <c r="G274" t="s">
+        <v>13</v>
+      </c>
+      <c r="H274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>349</v>
+      </c>
+      <c r="C275" t="n">
+        <v>4</v>
+      </c>
+      <c r="D275" t="s">
+        <v>39</v>
+      </c>
+      <c r="E275" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275" t="s">
+        <v>13</v>
+      </c>
+      <c r="H275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="B278" t="s">
+        <v>375</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D278" t="s">
+        <v>376</v>
+      </c>
+      <c r="E278" t="s">
+        <v>366</v>
+      </c>
+      <c r="F278" t="s">
+        <v>13</v>
+      </c>
+      <c r="G278" t="s">
+        <v>116</v>
+      </c>
+      <c r="H278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="B281" t="s">
         <v>353</v>
       </c>
-      <c r="E262" t="s">
-        <v>354</v>
-      </c>
-      <c r="F262" t="s">
-        <v>355</v>
-      </c>
-      <c r="G262" t="s">
-        <v>356</v>
-      </c>
-      <c r="H262" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="B265" t="s">
-        <v>359</v>
-      </c>
-      <c r="C265" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="D265" t="s">
-        <v>360</v>
-      </c>
-      <c r="E265" t="s">
-        <v>361</v>
-      </c>
-      <c r="F265" t="s">
-        <v>116</v>
-      </c>
-      <c r="G265" t="s">
-        <v>13</v>
-      </c>
-      <c r="H265" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="B266" t="s">
-        <v>362</v>
-      </c>
-      <c r="C266" t="n">
-        <v>3</v>
-      </c>
-      <c r="D266" t="s">
-        <v>363</v>
-      </c>
-      <c r="E266" t="s">
-        <v>55</v>
-      </c>
-      <c r="F266" t="s">
-        <v>13</v>
-      </c>
-      <c r="G266" t="s">
-        <v>13</v>
-      </c>
-      <c r="H266" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="B269" t="s">
-        <v>352</v>
-      </c>
-      <c r="C269" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D269" t="s">
-        <v>222</v>
-      </c>
-      <c r="E269" t="s">
-        <v>223</v>
-      </c>
-      <c r="F269" t="s">
-        <v>13</v>
-      </c>
-      <c r="G269" t="s">
-        <v>13</v>
-      </c>
-      <c r="H269" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="B272" t="s">
-        <v>367</v>
-      </c>
-      <c r="C272" t="n">
-        <v>3.1875</v>
-      </c>
-      <c r="D272" t="s">
-        <v>368</v>
-      </c>
-      <c r="E272" t="s">
-        <v>369</v>
-      </c>
-      <c r="F272" t="s">
-        <v>370</v>
-      </c>
-      <c r="G272" t="s">
-        <v>13</v>
-      </c>
-      <c r="H272" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="B273" t="s">
-        <v>348</v>
-      </c>
-      <c r="C273" t="n">
+      <c r="C281" t="n">
         <v>4</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D281" t="s">
         <v>39</v>
       </c>
-      <c r="E273" t="s">
-        <v>13</v>
-      </c>
-      <c r="F273" t="s">
-        <v>13</v>
-      </c>
-      <c r="G273" t="s">
-        <v>13</v>
-      </c>
-      <c r="H273" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="B276" t="s">
-        <v>372</v>
-      </c>
-      <c r="C276" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D276" t="s">
-        <v>373</v>
-      </c>
-      <c r="E276" t="s">
-        <v>363</v>
-      </c>
-      <c r="F276" t="s">
-        <v>13</v>
-      </c>
-      <c r="G276" t="s">
-        <v>116</v>
-      </c>
-      <c r="H276" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="B279" t="s">
-        <v>187</v>
-      </c>
-      <c r="C279" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="D279" t="s">
-        <v>375</v>
-      </c>
-      <c r="E279" t="s">
-        <v>376</v>
-      </c>
-      <c r="F279" t="s">
-        <v>13</v>
-      </c>
-      <c r="G279" t="s">
-        <v>13</v>
-      </c>
-      <c r="H279" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" t="s">
-        <v>377</v>
+      <c r="E281" t="s">
+        <v>13</v>
+      </c>
+      <c r="F281" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" t="s">
+        <v>13</v>
+      </c>
+      <c r="H281" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="B282" t="s">
-        <v>342</v>
+        <v>187</v>
       </c>
       <c r="C282" t="n">
-        <v>4</v>
+        <v>3.944</v>
       </c>
       <c r="D282" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="E282" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="F282" t="s">
         <v>13</v>
@@ -4758,24 +4808,24 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="B285" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="C285" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D285" t="s">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="E285" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="F285" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="G285" t="s">
         <v>13</v>
@@ -4786,24 +4836,24 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="B288" t="s">
+        <v>382</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D288" t="s">
         <v>383</v>
       </c>
-      <c r="C288" t="n">
-        <v>3.429</v>
-      </c>
-      <c r="D288" t="s">
+      <c r="E288" t="s">
+        <v>222</v>
+      </c>
+      <c r="F288" t="s">
         <v>384</v>
-      </c>
-      <c r="E288" t="s">
-        <v>361</v>
-      </c>
-      <c r="F288" t="s">
-        <v>13</v>
       </c>
       <c r="G288" t="s">
         <v>13</v>
@@ -4819,19 +4869,19 @@
     </row>
     <row r="291" spans="1:8">
       <c r="B291" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="C291" t="n">
-        <v>2.778</v>
+        <v>3.429</v>
       </c>
       <c r="D291" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E291" t="s">
-        <v>119</v>
+        <v>364</v>
       </c>
       <c r="F291" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G291" t="s">
         <v>13</v>
@@ -4842,24 +4892,24 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="B294" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C294" t="n">
-        <v>3.13</v>
+        <v>2.778</v>
       </c>
       <c r="D294" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E294" t="s">
-        <v>389</v>
+        <v>119</v>
       </c>
       <c r="F294" t="s">
-        <v>390</v>
+        <v>55</v>
       </c>
       <c r="G294" t="s">
         <v>13</v>
@@ -4870,24 +4920,24 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="B297" t="s">
+        <v>375</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D297" t="s">
+        <v>391</v>
+      </c>
+      <c r="E297" t="s">
         <v>392</v>
       </c>
-      <c r="C297" t="n">
-        <v>3</v>
-      </c>
-      <c r="D297" t="s">
-        <v>381</v>
-      </c>
-      <c r="E297" t="s">
-        <v>363</v>
-      </c>
       <c r="F297" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="G297" t="s">
         <v>13</v>
@@ -4898,24 +4948,24 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="B300" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C300" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D300" t="s">
-        <v>39</v>
+        <v>384</v>
       </c>
       <c r="E300" t="s">
-        <v>13</v>
+        <v>366</v>
       </c>
       <c r="F300" t="s">
-        <v>13</v>
+        <v>384</v>
       </c>
       <c r="G300" t="s">
         <v>13</v>
@@ -4926,12 +4976,12 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="B303" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C303" t="n">
         <v>4</v>
@@ -4954,12 +5004,12 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="B306" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C306" t="n">
         <v>4</v>
@@ -4982,21 +5032,21 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="B309" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C309" t="n">
-        <v>3.722</v>
+        <v>4</v>
       </c>
       <c r="D309" t="s">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="E309" t="s">
-        <v>402</v>
+        <v>13</v>
       </c>
       <c r="F309" t="s">
         <v>13</v>
@@ -5010,15 +5060,15 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="B312" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C312" t="n">
-        <v>3.244</v>
+        <v>3.722</v>
       </c>
       <c r="D312" t="s">
         <v>404</v>
@@ -5027,7 +5077,7 @@
         <v>405</v>
       </c>
       <c r="F312" t="s">
-        <v>406</v>
+        <v>13</v>
       </c>
       <c r="G312" t="s">
         <v>13</v>
@@ -5038,21 +5088,21 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="B315" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="C315" t="n">
-        <v>3.854</v>
+        <v>3.244</v>
       </c>
       <c r="D315" t="s">
+        <v>407</v>
+      </c>
+      <c r="E315" t="s">
         <v>408</v>
-      </c>
-      <c r="E315" t="s">
-        <v>204</v>
       </c>
       <c r="F315" t="s">
         <v>409</v>
@@ -5071,22 +5121,22 @@
     </row>
     <row r="318" spans="1:8">
       <c r="B318" t="s">
+        <v>362</v>
+      </c>
+      <c r="C318" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="D318" t="s">
         <v>411</v>
       </c>
-      <c r="C318" t="n">
-        <v>2.869</v>
-      </c>
-      <c r="D318" t="s">
+      <c r="E318" t="s">
+        <v>204</v>
+      </c>
+      <c r="F318" t="s">
         <v>412</v>
       </c>
-      <c r="E318" t="s">
-        <v>236</v>
-      </c>
-      <c r="F318" t="s">
-        <v>198</v>
-      </c>
       <c r="G318" t="s">
-        <v>413</v>
+        <v>13</v>
       </c>
       <c r="H318" t="s">
         <v>13</v>
@@ -5094,52 +5144,80 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="B321" t="s">
+        <v>414</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2.869</v>
+      </c>
+      <c r="D321" t="s">
         <v>415</v>
       </c>
-      <c r="C321" t="n">
+      <c r="E321" t="s">
+        <v>235</v>
+      </c>
+      <c r="F321" t="s">
+        <v>198</v>
+      </c>
+      <c r="G321" t="s">
+        <v>416</v>
+      </c>
+      <c r="H321" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="B324" t="s">
+        <v>418</v>
+      </c>
+      <c r="C324" t="n">
         <v>4</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D324" t="s">
         <v>39</v>
       </c>
-      <c r="E321" t="s">
-        <v>13</v>
-      </c>
-      <c r="F321" t="s">
-        <v>13</v>
-      </c>
-      <c r="G321" t="s">
-        <v>13</v>
-      </c>
-      <c r="H321" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="B322" t="s">
-        <v>411</v>
-      </c>
-      <c r="C322" t="n">
+      <c r="E324" t="s">
+        <v>13</v>
+      </c>
+      <c r="F324" t="s">
+        <v>13</v>
+      </c>
+      <c r="G324" t="s">
+        <v>13</v>
+      </c>
+      <c r="H324" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="B325" t="s">
+        <v>414</v>
+      </c>
+      <c r="C325" t="n">
         <v>4</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D325" t="s">
         <v>39</v>
       </c>
-      <c r="E322" t="s">
-        <v>13</v>
-      </c>
-      <c r="F322" t="s">
-        <v>13</v>
-      </c>
-      <c r="G322" t="s">
-        <v>13</v>
-      </c>
-      <c r="H322" t="s">
+      <c r="E325" t="s">
+        <v>13</v>
+      </c>
+      <c r="F325" t="s">
+        <v>13</v>
+      </c>
+      <c r="G325" t="s">
+        <v>13</v>
+      </c>
+      <c r="H325" t="s">
         <v>13</v>
       </c>
     </row>
